--- a/8/3/Activos de reserva 1982 a 2021 - Mensual.xlsx
+++ b/8/3/Activos de reserva 1982 a 2021 - Mensual.xlsx
@@ -14565,25 +14565,25 @@
         <v>484</v>
       </c>
       <c r="B476">
-        <v>49731</v>
+        <v>48767</v>
       </c>
       <c r="C476">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D476">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E476">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F476">
-        <v>48446</v>
+        <v>47477</v>
       </c>
       <c r="G476">
-        <v>7536</v>
+        <v>6014</v>
       </c>
       <c r="H476">
-        <v>40911</v>
+        <v>41463</v>
       </c>
       <c r="I476">
         <v>0</v>

--- a/8/3/Activos de reserva 1982 a 2021 - Mensual.xlsx
+++ b/8/3/Activos de reserva 1982 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
   <si>
     <t>Serie</t>
   </si>
@@ -1469,6 +1469,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J476"/>
+  <dimension ref="A1:J477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14592,6 +14595,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="477" spans="1:10">
+      <c r="A477" t="s">
+        <v>485</v>
+      </c>
+      <c r="B477">
+        <v>52022</v>
+      </c>
+      <c r="C477">
+        <v>14</v>
+      </c>
+      <c r="D477">
+        <v>3028</v>
+      </c>
+      <c r="E477">
+        <v>689</v>
+      </c>
+      <c r="F477">
+        <v>48291</v>
+      </c>
+      <c r="G477">
+        <v>6155</v>
+      </c>
+      <c r="H477">
+        <v>42136</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/3/Activos de reserva 1982 a 2021 - Mensual.xlsx
+++ b/8/3/Activos de reserva 1982 a 2021 - Mensual.xlsx
@@ -14600,7 +14600,7 @@
         <v>485</v>
       </c>
       <c r="B477">
-        <v>52022</v>
+        <v>52023</v>
       </c>
       <c r="C477">
         <v>14</v>
@@ -14615,7 +14615,7 @@
         <v>48291</v>
       </c>
       <c r="G477">
-        <v>6155</v>
+        <v>6156</v>
       </c>
       <c r="H477">
         <v>42136</v>

--- a/8/3/Activos de reserva 1982 a 2021 - Mensual.xlsx
+++ b/8/3/Activos de reserva 1982 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
   <si>
     <t>Serie</t>
   </si>
@@ -1472,6 +1472,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J477"/>
+  <dimension ref="A1:J478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14627,6 +14630,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="478" spans="1:10">
+      <c r="A478" t="s">
+        <v>486</v>
+      </c>
+      <c r="B478">
+        <v>53309</v>
+      </c>
+      <c r="C478">
+        <v>14</v>
+      </c>
+      <c r="D478">
+        <v>3136</v>
+      </c>
+      <c r="E478">
+        <v>677</v>
+      </c>
+      <c r="F478">
+        <v>49482</v>
+      </c>
+      <c r="G478">
+        <v>7125</v>
+      </c>
+      <c r="H478">
+        <v>42358</v>
+      </c>
+      <c r="I478">
+        <v>0</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/3/Activos de reserva 1982 a 2021 - Mensual.xlsx
+++ b/8/3/Activos de reserva 1982 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="488">
   <si>
     <t>Serie</t>
   </si>
@@ -1475,6 +1475,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J478"/>
+  <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14662,6 +14665,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="479" spans="1:10">
+      <c r="A479" t="s">
+        <v>487</v>
+      </c>
+      <c r="B479">
+        <v>55030</v>
+      </c>
+      <c r="C479">
+        <v>14</v>
+      </c>
+      <c r="D479">
+        <v>3476</v>
+      </c>
+      <c r="E479">
+        <v>680</v>
+      </c>
+      <c r="F479">
+        <v>50860</v>
+      </c>
+      <c r="G479">
+        <v>8195</v>
+      </c>
+      <c r="H479">
+        <v>42665</v>
+      </c>
+      <c r="I479">
+        <v>0</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
